--- a/SystemDevelopment/fully dressd.xlsx
+++ b/SystemDevelopment/fully dressd.xlsx
@@ -85,13 +85,13 @@
     <t>5. Employee starts a new order</t>
   </si>
   <si>
-    <t>1. Customer makes a call and makes an order and specifies information (name,size,type) . Customer provides name and phone number.</t>
-  </si>
-  <si>
     <t xml:space="preserve">6. System displays a product list with available products in stock </t>
   </si>
   <si>
     <t xml:space="preserve">6a. Item is not in stock </t>
+  </si>
+  <si>
+    <t>1. Customer makes a call and makes an order and specifies information (name,size,type) . Customer provides name and phone number. The Employee implements the information.</t>
   </si>
 </sst>
 </file>
@@ -237,12 +237,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -261,38 +291,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,139 +618,139 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="26"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="6:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="26"/>
-      <c r="G8" s="17" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="10"/>
+      <c r="G8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="10"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="10"/>
+      <c r="G10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="10"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="6:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="10"/>
+      <c r="G12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="26"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="26"/>
-      <c r="G10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="6:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="26"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="6:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="26"/>
-      <c r="G12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="13" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="26"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="21"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="26"/>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="26"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="23"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="26"/>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="6:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="27"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -761,11 +761,16 @@
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F6:F17"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G10:G11"/>
@@ -774,11 +779,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="G8:G9"/>

--- a/SystemDevelopment/fully dressd.xlsx
+++ b/SystemDevelopment/fully dressd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Use case name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Alternative flows</t>
   </si>
   <si>
-    <t>Customer, Employee</t>
-  </si>
-  <si>
     <t>Product are registered in stock</t>
   </si>
   <si>
@@ -61,37 +58,37 @@
     <t>Make Sale</t>
   </si>
   <si>
-    <t>2. System receives the order.</t>
-  </si>
-  <si>
-    <t>3. Employee registers the customer if it wasn't before or searches for it.</t>
-  </si>
-  <si>
-    <t>4. System registers customer by its name if it wasn't in the system before. If was, then returns the customer's information.</t>
-  </si>
-  <si>
-    <t>10. System calculates the discount and delivery fees (if any). System completes order and makes invoice.</t>
-  </si>
-  <si>
-    <t>9. Employee chooses to complete the order</t>
-  </si>
-  <si>
-    <t>8. System register desired products and adds to order</t>
-  </si>
-  <si>
-    <t>7. Employee chooses desired products.</t>
-  </si>
-  <si>
-    <t>5. Employee starts a new order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. System displays a product list with available products in stock </t>
-  </si>
-  <si>
     <t xml:space="preserve">6a. Item is not in stock </t>
   </si>
   <si>
     <t>1. Customer makes a call and makes an order and specifies information (name,size,type) . Customer provides name and phone number. The Employee implements the information.</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>2. Employee registers the customer if it wasn't before or searches for it.</t>
+  </si>
+  <si>
+    <t>3. System registers customer by its name if it wasn't in the system before. If was, then returns the customer's information.</t>
+  </si>
+  <si>
+    <t>4. Employee starts a new order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. System displays a product list with available products in stock </t>
+  </si>
+  <si>
+    <t>6. Employee chooses desired products.</t>
+  </si>
+  <si>
+    <t>7. System register desired products and adds to order</t>
+  </si>
+  <si>
+    <t>8. Employee chooses to complete the order</t>
+  </si>
+  <si>
+    <t>9. System calculates the discount and delivery fees (if any). System completes order and makes invoice.</t>
   </si>
 </sst>
 </file>
@@ -237,6 +234,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -272,21 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,49 +615,49 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="22"/>
+      <c r="G1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="24"/>
+      <c r="G2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="24"/>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="25"/>
+      <c r="G4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="25"/>
+      <c r="G5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="6:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="26" t="s">
@@ -671,86 +668,84 @@
       </c>
     </row>
     <row r="7" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="10"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="10"/>
-      <c r="G8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="23" t="s">
         <v>14</v>
       </c>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="6:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="10"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="10"/>
-      <c r="G10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="19" t="s">
         <v>16</v>
       </c>
+      <c r="H10" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="6:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="10"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="6:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="10"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="15"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="15"/>
+      <c r="G14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="15" t="s">
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="15"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="15"/>
+      <c r="G16" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="10"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="10"/>
-      <c r="G14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="10"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="10"/>
-      <c r="G16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>17</v>
+      <c r="H16" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="6:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="11"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -761,16 +756,11 @@
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F6:F17"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G10:G11"/>
@@ -785,6 +775,11 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
